--- a/a.xlsx
+++ b/a.xlsx
@@ -6,33 +6,37 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="教师表" r:id="rId3" sheetId="1"/>
+    <sheet name="学生表" r:id="rId3" sheetId="1"/>
+    <sheet name="教师表" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+  <si>
+    <t>学生表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>姜辞旧</t>
+  </si>
   <si>
     <t>教师表</t>
   </si>
   <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
     <t>教师</t>
-  </si>
-  <si>
-    <t>姜辞旧</t>
   </si>
   <si>
     <t>姜辞旧2</t>
@@ -46,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="32">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -54,16 +58,219 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -71,101 +278,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s" s="7">
         <v>5</v>
       </c>
+      <c r="C4" t="n" s="8">
+        <v>18.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17"/>
     </row>
     <row r="3">
-      <c r="B3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="20">
         <v>28.0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="22">
         <v>1.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="s" s="23">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n" s="24">
         <v>18.0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n" s="29">
+        <v>28.0</v>
+      </c>
+      <c r="G5" t="s" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20"/>
+      <c r="B6" t="n" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="s" s="26">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" t="n" s="27">
         <v>19.0</v>
       </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/a.xlsx
+++ b/a.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -67,50 +67,40 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
       <color indexed="8"/>
     </font>
     <font>
@@ -228,7 +218,7 @@
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +244,23 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="55"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -270,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,68 +286,6 @@
       <diagonal/>
     </border>
     <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -406,99 +351,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +448,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane xSplit="3.0" ySplit="3.0" state="frozen" topLeftCell="A1" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -521,33 +463,33 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s" s="4">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="6">
+      <c r="A4" t="n" s="5">
         <v>1.0</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C4" t="n" s="8">
+      <c r="C4" t="n" s="7">
         <v>18.0</v>
       </c>
     </row>
@@ -565,107 +507,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7.0" ySplit="4.0" state="frozen" topLeftCell="A1" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="9">
+      <c r="A1" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="11">
+      <c r="A2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="B2" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" t="s" s="16">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="17">
+      <c r="F2" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" t="s" s="13">
+      <c r="A3" s="9"/>
+      <c r="B3" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" t="s" s="18">
+      <c r="E3" s="14"/>
+      <c r="F3" t="s" s="16">
         <v>4</v>
       </c>
-      <c r="G3" t="s" s="19">
+      <c r="G3" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="14">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="20">
+      <c r="A5" t="n" s="18">
         <v>28.0</v>
       </c>
-      <c r="B5" t="n" s="22">
+      <c r="B5" t="n" s="20">
         <v>1.0</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="C5" t="s" s="21">
         <v>5</v>
       </c>
-      <c r="D5" t="n" s="24">
+      <c r="D5" t="n" s="22">
         <v>18.0</v>
       </c>
-      <c r="E5" t="s" s="28">
+      <c r="E5" t="s" s="26">
         <v>9</v>
       </c>
-      <c r="F5" t="n" s="29">
+      <c r="F5" t="n" s="27">
         <v>28.0</v>
       </c>
-      <c r="G5" t="s" s="29">
+      <c r="G5" t="s" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20"/>
-      <c r="B6" t="n" s="25">
+      <c r="A6" s="18"/>
+      <c r="B6" t="n" s="23">
         <v>2.0</v>
       </c>
-      <c r="C6" t="s" s="26">
+      <c r="C6" t="s" s="24">
         <v>8</v>
       </c>
-      <c r="D6" t="n" s="27">
+      <c r="D6" t="n" s="25">
         <v>19.0</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/a.xlsx
+++ b/a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>学生表</t>
   </si>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="42">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -217,8 +217,68 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +334,23 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="9"/>
         <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
       </patternFill>
     </fill>
   </fills>
@@ -351,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -374,7 +451,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -438,6 +515,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,7 +618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7.0" ySplit="4.0" state="frozen" topLeftCell="A1" activePane="bottomRight"/>
@@ -612,8 +725,46 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n" s="30">
+        <v>28.0</v>
+      </c>
+      <c r="B7" t="n" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n" s="34">
+        <v>18.0</v>
+      </c>
+      <c r="E7" t="s" s="38">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n" s="39">
+        <v>28.0</v>
+      </c>
+      <c r="G7" t="s" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30"/>
+      <c r="B8" t="n" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="s" s="36">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n" s="37">
+        <v>19.0</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D2"/>
@@ -627,6 +778,10 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
